--- a/src/main/resources/excel-import-loan/import_loan_month_principle.xlsx
+++ b/src/main/resources/excel-import-loan/import_loan_month_principle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pele/job/icoop-cm/icoop-backend/src/main/resources/excel-import-loan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BC3BA2-4599-BF49-8FA3-D638ED20759A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD71ECE5-E03E-4A48-8D90-D7EE579A74AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -565,7 +565,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -610,7 +610,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="3">
-        <v>980</v>
+        <v>1034</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>52</v>
@@ -630,7 +630,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="3">
-        <v>10837</v>
+        <v>14172</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>52</v>
@@ -650,7 +650,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="3">
-        <v>3853</v>
+        <v>4606</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>52</v>
@@ -670,7 +670,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="3">
-        <v>13117</v>
+        <v>14985</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>52</v>
@@ -690,7 +690,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="3">
-        <v>2772</v>
+        <v>4327</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>52</v>
@@ -710,7 +710,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="3">
-        <v>1497</v>
+        <v>2236</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>52</v>
@@ -730,7 +730,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="3">
-        <v>4550</v>
+        <v>5081</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>52</v>
@@ -750,7 +750,7 @@
         <v>29</v>
       </c>
       <c r="D9" s="3">
-        <v>826</v>
+        <v>1256</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>52</v>
@@ -770,7 +770,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="3">
-        <v>1580</v>
+        <v>2466</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>52</v>
@@ -790,7 +790,7 @@
         <v>33</v>
       </c>
       <c r="D11" s="3">
-        <v>978</v>
+        <v>1527</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>52</v>
@@ -810,7 +810,7 @@
         <v>35</v>
       </c>
       <c r="D12" s="3">
-        <v>1329</v>
+        <v>2074</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>52</v>
@@ -830,7 +830,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="3">
-        <v>4417</v>
+        <v>6894</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>52</v>
@@ -850,7 +850,7 @@
         <v>38</v>
       </c>
       <c r="D14" s="3">
-        <v>6716</v>
+        <v>7388</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>52</v>
@@ -870,7 +870,7 @@
         <v>40</v>
       </c>
       <c r="D15" s="3">
-        <v>1036</v>
+        <v>1617</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>52</v>
@@ -890,7 +890,7 @@
         <v>42</v>
       </c>
       <c r="D16" s="3">
-        <v>2462</v>
+        <v>2568</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>52</v>
@@ -910,7 +910,7 @@
         <v>44</v>
       </c>
       <c r="D17" s="3">
-        <v>890</v>
+        <v>1155</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>52</v>
@@ -930,7 +930,7 @@
         <v>47</v>
       </c>
       <c r="D18" s="3">
-        <v>901</v>
+        <v>1139</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>52</v>
@@ -950,7 +950,7 @@
         <v>49</v>
       </c>
       <c r="D19" s="3">
-        <v>859</v>
+        <v>1201</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>52</v>

--- a/src/main/resources/excel-import-loan/import_loan_month_principle.xlsx
+++ b/src/main/resources/excel-import-loan/import_loan_month_principle.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pele/job/icoop-cm/icoop-backend/src/main/resources/excel-import-loan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD71ECE5-E03E-4A48-8D90-D7EE579A74AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01F79BD-532B-A144-BEF0-2D31390A6D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="1660" windowWidth="36000" windowHeight="21200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="มกราคม" sheetId="1" r:id="rId1"/>
+    <sheet name="กุมภาพันธ์" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="55">
   <si>
     <t>หน่วยงาน*</t>
   </si>
@@ -197,6 +198,9 @@
   </si>
   <si>
     <t>เดือนนี้(ต้น)</t>
+  </si>
+  <si>
+    <t>กุมภาพันธ์</t>
   </si>
 </sst>
 </file>
@@ -255,7 +259,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -564,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1013,6 +1047,240 @@
     <row r="48" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716C3DF2-EE5A-7B44-930D-34E3AAAD0FCB}">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3">
+        <v>10878</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3">
+        <v>13167</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2783</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1503</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4434</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="2:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="2:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="2:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="2:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="2:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="2:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="2:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="2:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="2:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="2:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="2:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="2:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="2:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="2:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="2:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="2:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="2:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="2:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="2:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="2:2" ht="21" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>

--- a/src/main/resources/excel-import-loan/import_loan_month_principle.xlsx
+++ b/src/main/resources/excel-import-loan/import_loan_month_principle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pele/job/icoop-cm/icoop-backend/src/main/resources/excel-import-loan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01F79BD-532B-A144-BEF0-2D31390A6D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30C4867-FC5F-D649-B27B-758DDB9B1F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="1660" windowWidth="36000" windowHeight="21200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1057,13 +1057,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716C3DF2-EE5A-7B44-930D-34E3AAAD0FCB}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.1640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" style="4" customWidth="1"/>
@@ -1074,7 +1074,7 @@
     <col min="7" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="3">
-        <v>10878</v>
+        <v>14172</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>54</v>
@@ -1114,7 +1114,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="3">
-        <v>13167</v>
+        <v>14985</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>54</v>
@@ -1134,7 +1134,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>2783</v>
+        <v>4327</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>54</v>
@@ -1154,7 +1154,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="3">
-        <v>1503</v>
+        <v>2236</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>54</v>
@@ -1174,7 +1174,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="3">
-        <v>4434</v>
+        <v>6894</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>54</v>
@@ -1194,91 +1194,58 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="2:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="2:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="2:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="2:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="2:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="2:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="2:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="2:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="2:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="2:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="2:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="2:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="2:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="2:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="2:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="2:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="2:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="2:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="2:2" ht="21" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
